--- a/inst/extdata/MSF-outbreak-dict.xlsx
+++ b/inst/extdata/MSF-outbreak-dict.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Spina\Desktop\sitrep\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Spina\Desktop\epidict\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,6 +19,11 @@
     <sheet name="OptionCodes" sheetId="2" r:id="rId5"/>
     <sheet name="Rules" sheetId="5" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Cholera!$A$1:$G$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Measles!$A$1:$G$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Meningitis!$A$1:$G$54</definedName>
+  </definedNames>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3579,7 +3584,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12:XFD12"/>
+      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3618,445 +3623,449 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>322</v>
+        <v>397</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>76</v>
+        <v>398</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>323</v>
+        <v>399</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>324</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>326</v>
+        <v>424</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>327</v>
+        <v>425</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>328</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>330</v>
+        <v>405</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>406</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>331</v>
+        <v>407</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>16</v>
+        <v>406</v>
       </c>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>335</v>
-      </c>
+      <c r="A5" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>336</v>
+        <v>389</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>337</v>
+        <v>390</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>71</v>
+        <v>391</v>
       </c>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>340</v>
-      </c>
+      <c r="A7" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>344</v>
+      <c r="A8" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>346</v>
+        <v>440</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>347</v>
+        <v>441</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>348</v>
+        <v>442</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>352</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>353</v>
+        <v>450</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>354</v>
+        <v>451</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>355</v>
+        <v>452</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>357</v>
+        <v>327</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="G12" s="4"/>
+        <v>123</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>360</v>
+        <v>420</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>361</v>
+        <v>421</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>31</v>
+        <v>422</v>
       </c>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="4" t="s">
+      <c r="E17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G17" s="4" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="4" t="s">
+      <c r="E19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G19" s="4" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G19" s="2"/>
-    </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>387</v>
+      <c r="A20" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>389</v>
+        <v>436</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>390</v>
+        <v>437</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="G21" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
@@ -4080,534 +4089,530 @@
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="G23" s="2"/>
+      <c r="A23" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>401</v>
+        <v>458</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>402</v>
+        <v>459</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>403</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="G25" s="2"/>
+      <c r="A25" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>408</v>
+        <v>356</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>409</v>
+        <v>357</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>410</v>
+        <v>358</v>
       </c>
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="G27" s="2"/>
+      <c r="A27" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>416</v>
+        <v>372</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>417</v>
+        <v>373</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>418</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="E29" s="2" t="s">
+      <c r="A29" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="G30" s="4"/>
+      <c r="F30" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>428</v>
+        <v>64</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>429</v>
+        <v>65</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="G31" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>434</v>
+      <c r="A32" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>438</v>
+      <c r="A33" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>442</v>
-      </c>
+      <c r="A34" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>443</v>
+        <v>360</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>444</v>
+        <v>361</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>355</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>335</v>
-      </c>
+      <c r="A36" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>447</v>
+        <v>330</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>448</v>
+        <v>331</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>355</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>452</v>
+      <c r="A38" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>454</v>
+        <v>412</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>455</v>
+        <v>413</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>456</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="G39" s="2"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="E40" s="4" t="s">
+      <c r="A40" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F40" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G40" s="4"/>
+      <c r="F40" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="2" t="s">
+      <c r="E42" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="G42" s="4"/>
-    </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G43" s="2"/>
+      <c r="A43" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="G43" s="4"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>470</v>
+        <v>333</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>471</v>
+        <v>334</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>472</v>
+        <v>41</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>463</v>
+        <v>335</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>475</v>
+      <c r="A45" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>478</v>
+        <v>446</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="G46" s="4"/>
+        <v>59</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>335</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4620,10 +4625,10 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomRight" activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4662,1141 +4667,1141 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>796</v>
+        <v>396</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>232</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>234</v>
+        <v>398</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>798</v>
+        <v>399</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>233</v>
+        <v>398</v>
       </c>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>324</v>
-      </c>
+      <c r="A3" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>799</v>
+        <v>815</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>800</v>
+        <v>817</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="G4" s="2"/>
+        <v>818</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>846</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>335</v>
-      </c>
+      <c r="A5" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>801</v>
+        <v>367</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>802</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>178</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>437</v>
+        <v>369</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>843</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>349</v>
+        <v>388</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>351</v>
+        <v>390</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>352</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="2"/>
+      <c r="A8" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>374</v>
+        <v>400</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>376</v>
+        <v>402</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="G9" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>382</v>
+      <c r="A10" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>803</v>
+        <v>321</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>224</v>
+        <v>75</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>225</v>
+        <v>76</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>804</v>
+        <v>323</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>225</v>
+        <v>76</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>844</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>805</v>
+        <v>449</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>214</v>
+        <v>77</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>215</v>
+        <v>78</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>252</v>
+        <v>451</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="G12" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>403</v>
+      <c r="A13" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="G14" s="2"/>
+      <c r="A14" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="4" t="s">
+      <c r="E16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G16" s="4" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>807</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>808</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>419</v>
+        <v>821</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>85</v>
+        <v>250</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>86</v>
+        <v>251</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>421</v>
+        <v>822</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>422</v>
+        <v>251</v>
       </c>
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="G18" s="2"/>
+      <c r="A18" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>431</v>
+        <v>362</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>433</v>
+        <v>364</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>1</v>
+        <v>365</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>434</v>
+        <v>366</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>435</v>
+        <v>829</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>32</v>
+        <v>212</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>33</v>
+        <v>213</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>437</v>
+        <v>830</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>438</v>
+        <v>849</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>809</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>810</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>845</v>
+      <c r="A21" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>453</v>
+        <v>801</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>12</v>
+        <v>802</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>14</v>
+        <v>178</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>456</v>
+        <v>843</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G23" s="4"/>
+      <c r="A23" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>467</v>
+        <v>392</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>9</v>
+        <v>394</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>469</v>
+        <v>395</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>476</v>
+        <v>457</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>478</v>
+        <v>459</v>
       </c>
       <c r="E25" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>811</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="G28" s="2"/>
+      <c r="F28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>813</v>
+        <v>827</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>814</v>
+        <v>828</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="G29" s="4"/>
+        <v>227</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>848</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>344</v>
+      <c r="A30" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>348</v>
-      </c>
+      <c r="A31" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>815</v>
+        <v>467</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>210</v>
+        <v>9</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>211</v>
+        <v>10</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>817</v>
+        <v>469</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>818</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>846</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>362</v>
+        <v>329</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>364</v>
+        <v>331</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>366</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>367</v>
+        <v>453</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>369</v>
+        <v>455</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="G34" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>371</v>
+        <v>411</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>373</v>
+        <v>413</v>
       </c>
       <c r="E35" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F35" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>819</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>820</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>847</v>
-      </c>
+      <c r="F36" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>388</v>
+        <v>332</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>390</v>
+        <v>334</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="G37" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G38" s="2"/>
+      <c r="A38" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>821</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>822</v>
-      </c>
-      <c r="E39" s="4" t="s">
+      <c r="A39" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F39" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G39" s="4"/>
+      <c r="F39" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G39" s="2"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="G40" s="2"/>
+      <c r="A40" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="G40" s="4"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>823</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>824</v>
-      </c>
-      <c r="E41" s="4" t="s">
+      <c r="A41" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F41" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="G41" s="4"/>
+      <c r="F41" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G41" s="2"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>826</v>
-      </c>
-      <c r="E42" s="2" t="s">
+      <c r="A42" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G42" s="2"/>
+      <c r="F42" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>827</v>
+        <v>813</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>828</v>
+        <v>814</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>848</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="G43" s="4"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>830</v>
+        <v>836</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>849</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="G44" s="2"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>411</v>
+        <v>823</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>79</v>
+        <v>239</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>413</v>
+        <v>824</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>414</v>
+        <v>240</v>
       </c>
       <c r="G45" s="4"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>831</v>
+        <v>796</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>832</v>
+        <v>798</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G46" s="2"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>833</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>834</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G47" s="4"/>
+      <c r="A47" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>850</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>835</v>
+        <v>799</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>836</v>
+        <v>800</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="G48" s="2"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>439</v>
+        <v>809</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>73</v>
+        <v>241</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>74</v>
+        <v>242</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>441</v>
+        <v>810</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>74</v>
+        <v>242</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>442</v>
+        <v>845</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>449</v>
+        <v>811</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>77</v>
+        <v>222</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>78</v>
+        <v>223</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>451</v>
+        <v>812</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>452</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="G50" s="2"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>837</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>838</v>
-      </c>
-      <c r="E51" s="4" t="s">
+      <c r="A51" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F51" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="G51" s="4"/>
+      <c r="F51" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G51" s="2"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>839</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>840</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>850</v>
-      </c>
+      <c r="A52" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="G52" s="4"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
-        <v>841</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>842</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="G53" s="4"/>
+      <c r="A53" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>847</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5811,7 +5816,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5849,652 +5854,662 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>899</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="G2" s="2"/>
+      <c r="A2" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>900</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="G3" s="4"/>
+      <c r="A3" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>797</v>
+        <v>816</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>798</v>
+        <v>817</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="G4" s="2"/>
+        <v>818</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>846</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>902</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="G5" s="4"/>
+      <c r="A5" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G6" s="2"/>
+      <c r="A6" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>903</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="G7" s="4"/>
+      <c r="A7" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>904</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="G8" s="2"/>
+      <c r="A8" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>905</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>906</v>
+      <c r="A9" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>907</v>
+        <v>326</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>280</v>
+        <v>84</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>282</v>
+        <v>123</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>281</v>
+        <v>327</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="G10" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>360</v>
+        <v>420</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>361</v>
+        <v>421</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>31</v>
+        <v>422</v>
       </c>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>908</v>
+        <v>342</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>288</v>
+        <v>87</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>289</v>
+        <v>88</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>909</v>
+        <v>343</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G12" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="G13" s="4"/>
+      <c r="A13" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>379</v>
+        <v>436</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>380</v>
+        <v>33</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>381</v>
+        <v>437</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>380</v>
+        <v>178</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>382</v>
+        <v>438</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="E15" s="4" t="s">
+      <c r="A15" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" s="4"/>
+      <c r="F15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>806</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="G16" s="2"/>
+      <c r="A16" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>910</v>
+        <v>372</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>283</v>
+        <v>34</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>284</v>
+        <v>35</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>911</v>
+        <v>373</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>284</v>
+        <v>35</v>
       </c>
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>403</v>
-      </c>
+      <c r="A18" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>912</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="G19" s="4"/>
+      <c r="A19" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="G20" s="2"/>
+      <c r="A20" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>420</v>
+        <v>468</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>421</v>
+        <v>469</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>422</v>
+        <v>10</v>
       </c>
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="G22" s="2"/>
+      <c r="A22" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>434</v>
+      <c r="A23" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>438</v>
-      </c>
+      <c r="A24" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>915</v>
+        <v>352</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>456</v>
+      <c r="A26" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="4"/>
+      <c r="A27" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>929</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>477</v>
+        <v>934</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>38</v>
+        <v>306</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>39</v>
+        <v>307</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>478</v>
+        <v>153</v>
       </c>
       <c r="E28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>916</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>917</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>352</v>
-      </c>
+      <c r="F29" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>328</v>
+      <c r="A30" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>906</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" s="4"/>
+      <c r="A31" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>919</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -6521,477 +6536,467 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>920</v>
+        <v>936</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>268</v>
+        <v>319</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>270</v>
+        <v>320</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>269</v>
+        <v>937</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>270</v>
+        <v>320</v>
       </c>
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>921</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>919</v>
+      <c r="A34" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>914</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>915</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>922</v>
+        <v>930</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>51</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>342</v>
+        <v>477</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>343</v>
+        <v>478</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>344</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>923</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>924</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>352</v>
+      <c r="A37" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>346</v>
+        <v>806</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>42</v>
+        <v>214</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>43</v>
+        <v>215</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>347</v>
+        <v>252</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>348</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="G38" s="2"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>925</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="E39" s="4" t="s">
+      <c r="A39" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F39" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="G39" s="4"/>
+      <c r="F39" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G39" s="2"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>816</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>817</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>818</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>846</v>
-      </c>
+      <c r="A40" s="4" t="s">
+        <v>901</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="G40" s="4"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="G41" s="4"/>
+      <c r="A41" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="G41" s="2"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>926</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E42" s="2" t="s">
+      <c r="A42" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="G42" s="2"/>
+      <c r="F42" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G43" s="4"/>
+      <c r="A43" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G43" s="2"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>294</v>
+        <v>259</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>296</v>
+        <v>261</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>928</v>
+        <v>260</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>929</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="G44" s="2"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>930</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="E45" s="4" t="s">
+      <c r="A45" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F45" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="G45" s="4"/>
+      <c r="F45" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G45" s="2"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="G46" s="2"/>
+      <c r="A46" s="4" t="s">
+        <v>931</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G46" s="4"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>931</v>
+        <v>920</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>51</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="G47" s="4"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G48" s="2"/>
+      <c r="A48" s="4" t="s">
+        <v>912</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="G48" s="4"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>397</v>
+        <v>922</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>2</v>
+        <v>274</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>398</v>
+        <v>276</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>399</v>
+        <v>275</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>398</v>
+        <v>276</v>
       </c>
       <c r="G49" s="4"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>932</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>933</v>
-      </c>
-      <c r="E50" s="2" t="s">
+      <c r="A50" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F50" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="G50" s="2"/>
+      <c r="F50" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="G50" s="4"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="G51" s="4"/>
+      <c r="A51" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="G51" s="2"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>934</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>935</v>
-      </c>
+      <c r="A52" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>911</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="G52" s="4"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>936</v>
+        <v>900</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>319</v>
+        <v>285</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>320</v>
+        <v>287</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>937</v>
+        <v>286</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>320</v>
+        <v>287</v>
       </c>
       <c r="G53" s="4"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>938</v>
+        <v>908</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>939</v>
+        <v>909</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="G54" s="2"/>
     </row>
